--- a/project/0_rts/RT3004/1-Referências Técnicas/Planilha_Abaco_Gooseneck_MCV_Global_5k_Rev4_Suporte_Q1.xlsx
+++ b/project/0_rts/RT3004/1-Referências Técnicas/Planilha_Abaco_Gooseneck_MCV_Global_5k_Rev4_Suporte_Q1.xlsx
@@ -6671,11 +6671,10 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e22693a2-11d8-4e06-9932-42f8499655b9">
+    <TaxCatchAll xmlns="903036b2-f8dc-4ca8-82df-457cf2fff651" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="461c5b05-e7ae-45a9-96d4-4a689e060405">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="e22693a2-11d8-4e06-9932-42f8499655b9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -6690,10 +6689,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002E90C87AC8820043BFE71A5FB0DDB6EC" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a2a8ce1f5bc7a9ae8b5abdcb00b6cafe">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e22693a2-11d8-4e06-9932-42f8499655b9" xmlns:ns3="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b146a6bcd0f4c9724cf477ac809c65e8" ns2:_="" ns3:_="">
-    <xsd:import namespace="e22693a2-11d8-4e06-9932-42f8499655b9"/>
-    <xsd:import namespace="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010069E487C1B5A6A7469ECF295E300FC521" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0960ac6fc61b40489ab078022ce7de8d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="509bbd28-9a6d-445a-83dd-f5d328eece76" xmlns:ns3="903036b2-f8dc-4ca8-82df-457cf2fff651" xmlns:ns4="461c5b05-e7ae-45a9-96d4-4a689e060405" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f069df8fef6df821bd87bc04dd1b2c" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
+    <xsd:import namespace="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+    <xsd:import namespace="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -6702,18 +6702,18 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6721,7 +6721,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e22693a2-11d8-4e06-9932-42f8499655b9" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="509bbd28-9a6d-445a-83dd-f5d328eece76" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -6734,71 +6734,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5103c4ab-04ed-4a1f-bb47-9362306674cb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="21" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="903036b2-f8dc-4ca8-82df-457cf2fff651" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12529d39-6b3f-49f3-8254-0ddaa0523a13}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6817,11 +6757,75 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{671d7225-7c32-4489-b6da-c381a375bb6a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="903036b2-f8dc-4ca8-82df-457cf2fff651">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="461c5b05-e7ae-45a9-96d4-4a689e060405" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5103c4ab-04ed-4a1f-bb47-9362306674cb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6944,20 +6948,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA71194-D9F7-482B-B20D-F62636D5A373}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e22693a2-11d8-4e06-9932-42f8499655b9"/>
-    <ds:schemaRef ds:uri="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E78B88-74E9-40CA-9E3E-516BBC2EFE55}"/>
 </file>
--- a/project/0_rts/RT3004/1-Referências Técnicas/Planilha_Abaco_Gooseneck_MCV_Global_5k_Rev4_Suporte_Q1.xlsx
+++ b/project/0_rts/RT3004/1-Referências Técnicas/Planilha_Abaco_Gooseneck_MCV_Global_5k_Rev4_Suporte_Q1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwanderley\Digicorner\BVP Cloud - 3004\1-Referências Técnicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwanderley\Digicorner\Installation Analysis Subsea - Daniel Wanderley\tcc\project\0_rts\RT3004\1-Referências Técnicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9F095-D999-4B64-85AB-5BACC8086C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938125A-6874-4738-B6DC-D3D08CADC1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gooseneck MCV Global 5k" sheetId="1" r:id="rId1"/>
@@ -1827,6 +1827,81 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1863,18 +1938,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1920,80 +1983,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2001,52 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2065,30 +2049,46 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2676,11 +2676,11 @@
       <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -2688,11 +2688,11 @@
       <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
@@ -2700,78 +2700,78 @@
       <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="78"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
@@ -2804,32 +2804,32 @@
       <c r="C22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="7" t="e">
         <f>C19*C49+C20*C50+C51</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="8" t="e">
         <f>C19*G49+C20*G50+G51</f>
         <v>#VALUE!</v>
@@ -2840,33 +2840,33 @@
       <c r="B27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="92" t="str">
+      <c r="C27" s="69" t="str">
         <f>IF(AND(C19&gt;=L32,C19&lt;=L33,C20&gt;=L36,C20&lt;=L37),IF(AND(C21&lt;=E24,C21&gt;=E25),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>FORA DO DOMÍNIO ANALISADO</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="97" t="str">
+      <c r="C28" s="74" t="str">
         <f>IF(C27="REPROVADO","Ruptura no Ponto de Quebra", "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="97">
+      <c r="C29" s="76"/>
+      <c r="D29" s="74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E29" s="93"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="3"/>
@@ -2876,20 +2876,20 @@
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="G31" s="102" t="s">
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="G31" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="K31" s="90" t="s">
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="K31" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="90"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
@@ -3029,10 +3029,10 @@
         <v>8</v>
       </c>
       <c r="J35" s="32"/>
-      <c r="K35" s="91" t="s">
+      <c r="K35" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="91"/>
+      <c r="L35" s="68"/>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
     </row>
@@ -3419,86 +3419,86 @@
       <c r="L51" s="36"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="98"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="63"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="89"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="66"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="66"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="66"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="89"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="69"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="92"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
@@ -4416,6 +4416,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="z3Pzo80k1HwLAPBDb1Ez9VkEujVgmV8hY8FoejDi4Gbvdpou2JLX4hqinSPaHc6s+YQbmRNFJaLkz2G01SVtIw==" saltValue="CiKGbIbhPTpGwmR9DVzpmA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="B53:I59"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
@@ -4431,18 +4443,6 @@
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B53:I59"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -4484,7 +4484,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,80 +4502,80 @@
       <c r="B2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="63"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="129">
+      <c r="B5" s="113"/>
+      <c r="C5" s="123">
         <v>45490</v>
       </c>
-      <c r="D5" s="130"/>
+      <c r="D5" s="124"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="131" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="132"/>
+      <c r="D6" s="126"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="111"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4610,59 +4610,59 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="122" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="49">
-        <v>9.73</v>
-      </c>
-      <c r="D13" s="109" t="str">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="D13" s="108" t="str">
         <f>IF(AND(C13&gt;=G69,C13&lt;=G70,C14&gt;=G73,C14&lt;=G74),IF(AND(C15&lt;=F15,C15&gt;=G15),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="50">
-        <v>3.55</v>
-      </c>
-      <c r="D14" s="109"/>
+        <v>13.878</v>
+      </c>
+      <c r="D14" s="108"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="50">
-        <v>46</v>
-      </c>
-      <c r="D15" s="110"/>
+        <v>39.143000000000001</v>
+      </c>
+      <c r="D15" s="109"/>
       <c r="F15" s="1">
         <f>C13*G58+C14*G59+G60</f>
-        <v>94.584417254556143</v>
+        <v>76.259963991769538</v>
       </c>
       <c r="G15" s="1">
         <f>C13*K58+C14*K59+K60</f>
-        <v>-77.252149470899468</v>
+        <v>-95.250324074074072</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="117" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="49">
-        <v>-6.69</v>
-      </c>
-      <c r="D16" s="111" t="str">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="D16" s="120" t="str">
         <f>IF(AND(C16&gt;=G69,C16&lt;=G70,C17&gt;=G73,C17&lt;=G74),IF(AND(C18&lt;=F18,C18&gt;=G18),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4670,87 +4670,87 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="50">
-        <v>-20.54</v>
-      </c>
-      <c r="D17" s="109"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
+        <v>13.878</v>
+      </c>
+      <c r="D17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="118"/>
       <c r="B18" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="50">
-        <v>-37.340000000000003</v>
-      </c>
-      <c r="D18" s="112"/>
+        <v>39.143000000000001</v>
+      </c>
+      <c r="D18" s="121"/>
       <c r="F18" s="1">
         <f>C16*G58+C17*G59+G60</f>
-        <v>110.40937683715461</v>
+        <v>76.259963991769538</v>
       </c>
       <c r="G18" s="1">
         <f>C16*K58+C17*K59+K60</f>
-        <v>-59.49656084656084</v>
+        <v>-95.250324074074072</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="119" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="52">
-        <v>6.31</v>
-      </c>
-      <c r="D19" s="108" t="str">
+      <c r="C19" s="49">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="D19" s="107" t="str">
         <f>IF(AND(C19&gt;=G69,C19&lt;=G70,C20&gt;=G73,C20&lt;=G74),IF(AND(C21&lt;=F21,C21&gt;=G21),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="50">
-        <v>-11.75</v>
-      </c>
-      <c r="D20" s="109"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
+        <v>13.878</v>
+      </c>
+      <c r="D20" s="108"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
       <c r="B21" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="50">
-        <v>-44.23</v>
-      </c>
-      <c r="D21" s="110"/>
+        <v>39.143000000000001</v>
+      </c>
+      <c r="D21" s="109"/>
       <c r="F21" s="1">
         <f>C19*G58+C20*G59+G60</f>
-        <v>112.87575323339212</v>
+        <v>76.259963991769538</v>
       </c>
       <c r="G21" s="1">
         <f>C19*K58+C20*K59+K60</f>
-        <v>-58.558697089947088</v>
+        <v>-95.250324074074072</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="117" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="52">
-        <v>6.31</v>
-      </c>
-      <c r="D22" s="111" t="str">
+      <c r="C22" s="49">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="D22" s="120" t="str">
         <f>IF(AND(C22&gt;=G69,C22&lt;=G70,C23&gt;=G73,C23&lt;=G74),IF(AND(C24&lt;=F24,C24&gt;=G24),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4758,44 +4758,44 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="50">
-        <v>-11.75</v>
-      </c>
-      <c r="D23" s="109"/>
+        <v>13.878</v>
+      </c>
+      <c r="D23" s="108"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
+      <c r="A24" s="118"/>
       <c r="B24" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="50">
-        <v>-44.23</v>
-      </c>
-      <c r="D24" s="112"/>
+        <v>39.143000000000001</v>
+      </c>
+      <c r="D24" s="121"/>
       <c r="F24" s="1">
         <f>C22*G58+C23*G59+G60</f>
-        <v>112.87575323339212</v>
+        <v>76.259963991769538</v>
       </c>
       <c r="G24" s="1">
         <f>C22*K58+C23*K59+K60</f>
-        <v>-58.558697089947088</v>
+        <v>-95.250324074074072</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="119" t="s">
         <v>74</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="108" t="str">
+      <c r="D25" s="107" t="str">
         <f>IF(AND(C25&gt;=G69,C25&lt;=G70,C26&gt;=G73,C26&lt;=G74),IF(AND(C27&lt;=F24,C27&gt;=G24),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4803,22 +4803,22 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="109"/>
+      <c r="D26" s="108"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="50"/>
-      <c r="D27" s="110"/>
+      <c r="D27" s="109"/>
       <c r="F27" s="1">
         <f>C25*G58+C26*G59+G60</f>
         <v>88.321171369782476</v>
@@ -4829,14 +4829,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="117" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="50"/>
-      <c r="D28" s="111" t="str">
+      <c r="D28" s="120" t="str">
         <f>IF(AND(C28&gt;=G69,C28&lt;=G70,C29&gt;=G73,C29&lt;=G74),IF(AND(C30&lt;=F30,C30&gt;=G30),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4844,22 +4844,22 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="50"/>
-      <c r="D29" s="109"/>
+      <c r="D29" s="108"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="51"/>
-      <c r="D30" s="112"/>
+      <c r="D30" s="121"/>
       <c r="F30" s="1">
         <f>C28*G58+C29*G59+G60</f>
         <v>88.321171369782476</v>
@@ -4870,14 +4870,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="119" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="108" t="str">
+      <c r="D31" s="107" t="str">
         <f>IF(AND(C31&gt;=J69,C31&lt;=J70,C32&gt;=J73,C32&lt;=J74),IF(AND(C33&lt;=F33,C33&gt;=G33),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4885,22 +4885,22 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="126"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="50"/>
-      <c r="D32" s="109"/>
+      <c r="D32" s="108"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="50"/>
-      <c r="D33" s="110"/>
+      <c r="D33" s="109"/>
       <c r="F33" s="1">
         <f>C31*G63+C32*G64+G65</f>
         <v>73.860566448801734</v>
@@ -4911,14 +4911,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="126" t="s">
+      <c r="A34" s="117" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="50"/>
-      <c r="D34" s="111" t="str">
+      <c r="D34" s="120" t="str">
         <f>IF(AND(C34&gt;=J69,C34&lt;=J70,C35&gt;=J73,C35&lt;=J74),IF(AND(C36&lt;=F36,C36&gt;=G36),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4926,22 +4926,22 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="126"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="50"/>
-      <c r="D35" s="109"/>
+      <c r="D35" s="108"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="127"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="51"/>
-      <c r="D36" s="112"/>
+      <c r="D36" s="121"/>
       <c r="F36" s="1">
         <f>C34*G63+C35*G64+G65</f>
         <v>73.860566448801734</v>
@@ -4952,14 +4952,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="119" t="s">
         <v>78</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="108" t="str">
+      <c r="D37" s="107" t="str">
         <f>IF(AND(C37&gt;=$J$69,C37&lt;=$J$70,C38&gt;=$J$73,C38&lt;=$J$74),IF(AND(C39&lt;=F39,C39&gt;=G39),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -4967,22 +4967,22 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="50"/>
-      <c r="D38" s="109"/>
+      <c r="D38" s="108"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="126"/>
+      <c r="A39" s="117"/>
       <c r="B39" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="50"/>
-      <c r="D39" s="110"/>
+      <c r="D39" s="109"/>
       <c r="F39" s="1">
         <f>C37*G63+C38*G64+G65</f>
         <v>73.860566448801734</v>
@@ -4993,14 +4993,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="117" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C40" s="50"/>
-      <c r="D40" s="111" t="str">
+      <c r="D40" s="120" t="str">
         <f>IF(AND(C40&gt;=J69,C40&lt;=J70,C41&gt;=J73,C41&lt;=J74),IF(AND(C42&lt;=F42,C42&gt;=G42),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -5008,22 +5008,22 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="126"/>
+      <c r="A41" s="117"/>
       <c r="B41" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="50"/>
-      <c r="D41" s="109"/>
+      <c r="D41" s="108"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="127"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="51"/>
-      <c r="D42" s="112"/>
+      <c r="D42" s="121"/>
       <c r="F42" s="1">
         <f>C40*$G$63+C41*$G$64+$G$65</f>
         <v>73.860566448801734</v>
@@ -5034,14 +5034,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="140" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="52"/>
-      <c r="D43" s="108" t="str">
+      <c r="D43" s="107" t="str">
         <f t="shared" ref="D43" si="0">IF(AND(C43&gt;=$J$69,C43&lt;=$J$70,C44&gt;=$J$73,C44&lt;=$J$74),IF(AND(C45&lt;=F45,C45&gt;=G45),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -5049,22 +5049,22 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="123"/>
+      <c r="A44" s="138"/>
       <c r="B44" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C44" s="50"/>
-      <c r="D44" s="109"/>
+      <c r="D44" s="108"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="123"/>
+      <c r="A45" s="138"/>
       <c r="B45" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="50"/>
-      <c r="D45" s="110"/>
+      <c r="D45" s="109"/>
       <c r="F45" s="1">
         <f>C43*$G$63+C44*$G$64+$G$65</f>
         <v>73.860566448801734</v>
@@ -5075,14 +5075,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="137" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="50"/>
-      <c r="D46" s="111" t="str">
+      <c r="D46" s="120" t="str">
         <f t="shared" ref="D46" si="1">IF(AND(C46&gt;=$J$69,C46&lt;=$J$70,C47&gt;=$J$73,C47&lt;=$J$74),IF(AND(C48&lt;=F48,C48&gt;=G48),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -5090,22 +5090,22 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="50"/>
-      <c r="D47" s="109"/>
+      <c r="D47" s="108"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="51"/>
-      <c r="D48" s="112"/>
+      <c r="D48" s="121"/>
       <c r="F48" s="1">
         <f>C46*$G$63+C47*$G$64+$G$65</f>
         <v>73.860566448801734</v>
@@ -5116,14 +5116,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="140" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="108" t="str">
+      <c r="D49" s="107" t="str">
         <f t="shared" ref="D49" si="2">IF(AND(C49&gt;=$J$69,C49&lt;=$J$70,C50&gt;=$J$73,C50&lt;=$J$74),IF(AND(C51&lt;=F51,C51&gt;=G51),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -5131,22 +5131,22 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="123"/>
+      <c r="A50" s="138"/>
       <c r="B50" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="50"/>
-      <c r="D50" s="109"/>
+      <c r="D50" s="108"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="123"/>
+      <c r="A51" s="138"/>
       <c r="B51" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="50"/>
-      <c r="D51" s="110"/>
+      <c r="D51" s="109"/>
       <c r="F51" s="1">
         <f>C49*$G$63+C50*$G$64+$G$65</f>
         <v>73.860566448801734</v>
@@ -5157,14 +5157,14 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="137" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="50"/>
-      <c r="D52" s="111" t="str">
+      <c r="D52" s="120" t="str">
         <f t="shared" ref="D52" si="3">IF(AND(C52&gt;=$J$69,C52&lt;=$J$70,C53&gt;=$J$73,C53&lt;=$J$74),IF(AND(C54&lt;=F54,C54&gt;=G54),"APROVADO","REPROVADO"),"FORA DO DOMÍNIO ANALISADO")</f>
         <v>APROVADO</v>
       </c>
@@ -5172,22 +5172,22 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="123"/>
+      <c r="A53" s="138"/>
       <c r="B53" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="50"/>
-      <c r="D53" s="109"/>
+      <c r="D53" s="108"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="124"/>
+      <c r="A54" s="139"/>
       <c r="B54" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="51"/>
-      <c r="D54" s="112"/>
+      <c r="D54" s="121"/>
       <c r="F54" s="1">
         <f>C52*$G$63+C53*$G$64+$G$65</f>
         <v>73.860566448801734</v>
@@ -5199,32 +5199,32 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="116"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="118"/>
-      <c r="F57" s="107" t="s">
+      <c r="A57" s="131"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="133"/>
+      <c r="F57" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="116"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="133"/>
       <c r="F58" t="s">
         <v>47</v>
       </c>
@@ -5236,10 +5236,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="116"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="133"/>
       <c r="F59" t="s">
         <v>48</v>
       </c>
@@ -5251,10 +5251,10 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
       <c r="F60" t="s">
         <v>49</v>
       </c>
@@ -5266,14 +5266,14 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F62" s="107" t="s">
+      <c r="F62" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="107"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
@@ -5309,14 +5309,14 @@
       </c>
     </row>
     <row r="67" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F67" s="107" t="s">
+      <c r="F67" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="107"/>
-      <c r="I67" s="107" t="s">
+      <c r="G67" s="127"/>
+      <c r="I67" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="J67" s="107"/>
+      <c r="J67" s="127"/>
     </row>
     <row r="68" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
@@ -5393,6 +5393,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tHAtuC875ZCehOjN2sYwffLm9tMLanwRmFHkwy8cFC2vAaQLeOs8/MdjppDfwc1CIESjAX9FxzhLsxZM65vGfA==" saltValue="ZkcvtKv7GIh29SbnhaB/WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="46">
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="A56:D60"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D49:D51"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A5:B5"/>
@@ -5409,36 +5439,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="A56:D60"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6680,15 +6680,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010069E487C1B5A6A7469ECF295E300FC521" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0960ac6fc61b40489ab078022ce7de8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="509bbd28-9a6d-445a-83dd-f5d328eece76" xmlns:ns3="903036b2-f8dc-4ca8-82df-457cf2fff651" xmlns:ns4="461c5b05-e7ae-45a9-96d4-4a689e060405" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2f069df8fef6df821bd87bc04dd1b2c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
@@ -6928,6 +6919,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5227E076-8F4E-44FF-8C6B-CDF9BF0256F4}">
   <ds:schemaRefs>
@@ -6935,18 +6935,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7240fca1-d5d8-4b7d-af8f-d58b11c87bd0"/>
     <ds:schemaRef ds:uri="e22693a2-11d8-4e06-9932-42f8499655b9"/>
+    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E78B88-74E9-40CA-9E3E-516BBC2EFE55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="509bbd28-9a6d-445a-83dd-f5d328eece76"/>
+    <ds:schemaRef ds:uri="903036b2-f8dc-4ca8-82df-457cf2fff651"/>
+    <ds:schemaRef ds:uri="461c5b05-e7ae-45a9-96d4-4a689e060405"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D0C0DC-16AE-443F-88C6-DA55CEAF12ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24E78B88-74E9-40CA-9E3E-516BBC2EFE55}"/>
 </file>